--- a/hose.xlsx
+++ b/hose.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="22275" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="预检修" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,110 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <si>
+    <t>检修id</t>
+  </si>
+  <si>
+    <t>overhaul_id</t>
+  </si>
+  <si>
+    <t>自增</t>
+  </si>
+  <si>
+    <t>检修区域</t>
+  </si>
+  <si>
+    <t>inspection_area</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>检修内容</t>
+  </si>
+  <si>
+    <t>maintenance_content</t>
+  </si>
+  <si>
+    <t>检修状态</t>
+  </si>
+  <si>
+    <t>maintenance_condition</t>
+  </si>
+  <si>
+    <t>检修总天数</t>
+  </si>
+  <si>
+    <t>total_days</t>
+  </si>
+  <si>
+    <t>上次检修时间</t>
+  </si>
+  <si>
+    <t>last_inspection_time</t>
+  </si>
+  <si>
+    <t>检修备注</t>
+  </si>
+  <si>
+    <t>inspection_remarks</t>
+  </si>
+  <si>
+    <t>检修人</t>
+  </si>
+  <si>
+    <t>maintenance_man</t>
+  </si>
+  <si>
+    <t>后根据移动端修改用户需修改</t>
+  </si>
+  <si>
+    <t>检修问题未解决</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>删除标志（0代表存在 2代表删除）</t>
+  </si>
+  <si>
+    <t>del_flag</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>多少周检修</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,14 +1089,162 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/hose.xlsx
+++ b/hose.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22275" windowHeight="12135"/>
+    <workbookView windowWidth="22275" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="预检修" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="库房备件" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>检修id</t>
   </si>
@@ -115,6 +115,99 @@
   </si>
   <si>
     <t>weeks</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>库位</t>
+  </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <t>storage_location</t>
+  </si>
+  <si>
+    <t>物料编号</t>
+  </si>
+  <si>
+    <t>material_number</t>
+  </si>
+  <si>
+    <t>物料名称</t>
+  </si>
+  <si>
+    <t>material_name</t>
+  </si>
+  <si>
+    <t>规格型号</t>
+  </si>
+  <si>
+    <t>specification_model</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>盘点数量</t>
+  </si>
+  <si>
+    <t>count_quantity</t>
+  </si>
+  <si>
+    <t>随机S/旧件J/新件X</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>库位说明</t>
+  </si>
+  <si>
+    <t>storage_location_description</t>
+  </si>
+  <si>
+    <t>安全库存</t>
+  </si>
+  <si>
+    <t>safety_stock</t>
+  </si>
+  <si>
+    <t>货架</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>货架计数</t>
+  </si>
+  <si>
+    <t>shelf_count</t>
+  </si>
+  <si>
+    <t>是否导入</t>
+  </si>
+  <si>
+    <t>import_not</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>预警数量</t>
   </si>
 </sst>
 </file>
@@ -139,13 +232,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -285,6 +371,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -588,52 +679,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,106 +737,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -792,6 +884,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1091,8 +1184,8 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1254,14 +1347,196 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
